--- a/MDAX_weights.xlsx
+++ b/MDAX_weights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\учеба 3 курс\КУРСАЧ\Полезное\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F403474B-3D52-4184-9F42-E5D2C1C95AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EDF09A-9CDF-4C97-B12A-FC72C9C70CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{75603381-9499-46CB-A201-F2C761925137}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>AIR.DE</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t xml:space="preserve"> COK.DE</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
 </sst>
 </file>
@@ -684,257 +690,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B4EC8E-428B-419C-81EB-9E54C21E86A6}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.10538</v>
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>4.2209999999999998E-2</v>
+        <v>0.10538</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>3.5581000000000002E-2</v>
+        <v>4.2209999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>3.1380999999999999E-2</v>
+        <v>3.5581000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>5.6774999999999999E-2</v>
+        <v>3.1380999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>3.6139000000000004E-2</v>
+        <v>5.6774999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>2.4067999999999999E-2</v>
+        <v>3.6139000000000004E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>1.7405999999999998E-2</v>
+        <v>2.4067999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1">
-        <v>1.7652000000000001E-2</v>
+        <v>1.7405999999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>1.6866000000000003E-2</v>
+        <v>1.7652000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>1.5109999999999998E-2</v>
+        <v>1.6866000000000003E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>1.6247999999999999E-2</v>
+        <v>1.5109999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>1.3354999999999999E-2</v>
+        <v>1.6247999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>1.4251E-2</v>
+        <v>1.3354999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>1.6022000000000002E-2</v>
+        <v>1.4251E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1">
-        <v>1.0995999999999999E-2</v>
+        <v>1.6022000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
-        <v>1.2168000000000002E-2</v>
+        <v>1.0995999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1">
-        <v>1.2095E-2</v>
+        <v>1.2168000000000002E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1">
-        <v>1.1482000000000001E-2</v>
+        <v>1.2095E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1">
-        <v>9.3880000000000005E-3</v>
+        <v>1.1482000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1">
-        <v>1.0933999999999999E-2</v>
+        <v>9.3880000000000005E-3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1">
-        <v>1.0444999999999999E-2</v>
+        <v>1.0933999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1">
-        <v>1.0481000000000001E-2</v>
+        <v>1.0444999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1">
-        <v>8.3789999999999993E-3</v>
+        <v>1.0481000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1">
-        <v>7.8390000000000005E-3</v>
+        <v>8.3789999999999993E-3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1">
-        <v>6.7320000000000001E-3</v>
+        <v>7.8390000000000005E-3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1">
-        <v>8.3879999999999996E-3</v>
+        <v>6.7320000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1">
-        <v>8.3149999999999995E-3</v>
+        <v>8.3879999999999996E-3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1">
-        <v>6.5690000000000002E-3</v>
+        <v>8.3149999999999995E-3</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6.5690000000000002E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="1">
         <v>6.3299999999999997E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2"/>
@@ -958,7 +968,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2"/>
@@ -966,7 +976,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2"/>
-      <c r="B39" s="4"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2"/>
@@ -1042,15 +1052,19 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2"/>
-      <c r="B58" s="3"/>
+      <c r="B58" s="4"/>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2"/>
-      <c r="B59" s="4"/>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2"/>
       <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MDAX_weights.xlsx
+++ b/MDAX_weights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\учеба 3 курс\КУРСАЧ\Полезное\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EDF09A-9CDF-4C97-B12A-FC72C9C70CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA8C84A-6E4A-45EB-BA77-884D69EC5141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{75603381-9499-46CB-A201-F2C761925137}"/>
   </bookViews>
@@ -692,9 +692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B4EC8E-428B-419C-81EB-9E54C21E86A6}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
